--- a/backend/templates/stock_template.xlsx
+++ b/backend/templates/stock_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock Import" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Stock Import" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -57,8 +67,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,13 +435,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -451,15 +472,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>cost_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mrp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pricing</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>category</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_stock_alert</t>
         </is>
@@ -477,17 +513,26 @@
       <c r="C2" t="n">
         <v>45000</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -503,17 +548,26 @@
       <c r="C3" t="n">
         <v>38000.5</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38000.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -529,17 +583,26 @@
       <c r="C4" t="n">
         <v>850</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>650</v>
+      </c>
+      <c r="E4" t="n">
+        <v>900</v>
+      </c>
+      <c r="F4" t="n">
+        <v>850</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -555,17 +618,26 @@
       <c r="C5" t="n">
         <v>2500</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,17 +653,26 @@
       <c r="C6" t="n">
         <v>150</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>180</v>
+      </c>
+      <c r="F6" t="n">
+        <v>150</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>20</v>
       </c>
     </row>
@@ -607,17 +688,26 @@
       <c r="C7" t="n">
         <v>250</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>280</v>
+      </c>
+      <c r="F7" t="n">
+        <v>250</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>ream</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>50</v>
       </c>
     </row>
@@ -633,17 +723,26 @@
       <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -659,17 +758,26 @@
       <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -685,17 +793,26 @@
       <c r="C10" t="n">
         <v>45</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>50</v>
       </c>
     </row>
@@ -711,17 +828,26 @@
       <c r="C11" t="n">
         <v>120</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" t="n">
+        <v>140</v>
+      </c>
+      <c r="F11" t="n">
+        <v>120</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>15</v>
       </c>
     </row>
@@ -737,17 +863,26 @@
       <c r="C12" t="n">
         <v>12000</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Furniture</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -763,17 +898,26 @@
       <c r="C13" t="n">
         <v>8500</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Furniture</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -789,17 +933,26 @@
       <c r="C14" t="n">
         <v>15000</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16500</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Furniture</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -815,17 +968,26 @@
       <c r="C15" t="n">
         <v>35000</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Furniture</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -841,17 +1003,26 @@
       <c r="C16" t="n">
         <v>6500</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Furniture</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -867,17 +1038,26 @@
       <c r="C17" t="n">
         <v>18000</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19500</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -893,17 +1073,26 @@
       <c r="C18" t="n">
         <v>350</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>250</v>
+      </c>
+      <c r="E18" t="n">
+        <v>400</v>
+      </c>
+      <c r="F18" t="n">
+        <v>350</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>15</v>
       </c>
     </row>
@@ -919,17 +1108,26 @@
       <c r="C19" t="n">
         <v>1200</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>900</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Accessories</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -945,17 +1143,26 @@
       <c r="C20" t="n">
         <v>450</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>350</v>
+      </c>
+      <c r="E20" t="n">
+        <v>500</v>
+      </c>
+      <c r="F20" t="n">
+        <v>450</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -971,17 +1178,26 @@
       <c r="C21" t="n">
         <v>25</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>30</v>
       </c>
     </row>
@@ -997,17 +1213,26 @@
       <c r="C22" t="n">
         <v>280</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>220</v>
+      </c>
+      <c r="E22" t="n">
+        <v>320</v>
+      </c>
+      <c r="F22" t="n">
+        <v>280</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1023,17 +1248,26 @@
       <c r="C23" t="n">
         <v>35</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40</v>
+      </c>
+      <c r="F23" t="n">
+        <v>35</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>box</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1049,17 +1283,26 @@
       <c r="C24" t="n">
         <v>65</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>65</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Stationery</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1075,17 +1318,26 @@
       <c r="C25" t="n">
         <v>850</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>700</v>
+      </c>
+      <c r="E25" t="n">
+        <v>950</v>
+      </c>
+      <c r="F25" t="n">
+        <v>850</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1101,17 +1353,26 @@
       <c r="C26" t="n">
         <v>28000</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1127,17 +1388,26 @@
       <c r="C27" t="n">
         <v>1200</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1153,17 +1423,26 @@
       <c r="C28" t="n">
         <v>1500</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1179,17 +1458,26 @@
       <c r="C29" t="n">
         <v>15000</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16500</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1205,17 +1493,26 @@
       <c r="C30" t="n">
         <v>4500</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1231,17 +1528,26 @@
       <c r="C31" t="n">
         <v>350</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>280</v>
+      </c>
+      <c r="E31" t="n">
+        <v>400</v>
+      </c>
+      <c r="F31" t="n">
+        <v>350</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Electronics</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>20</v>
       </c>
     </row>

--- a/backend/templates/stock_template.xlsx
+++ b/backend/templates/stock_template.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,23 +28,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -67,8 +57,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,24 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="29" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -462,42 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>rate</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cost_price</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mrp</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>low_stock_alert</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>item_code</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>barcode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gst_percentage</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>hsn_code</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>pricing</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>low_stock_alert</t>
         </is>
       </c>
     </row>
@@ -507,1048 +496,3598 @@
           <t>Laptop Dell Inspiron</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>15</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>45000</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48000</v>
+        <v>34882.56</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>45000</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-3493</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-857762</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3587</v>
+      </c>
+      <c r="K2" t="n">
+        <v>34882.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HP Desktop Computer</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
+          <t>Laptop Dell Inspiron</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>38000.5</v>
+        <v>312</v>
       </c>
       <c r="D3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40000</v>
+        <v>49949.43</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>38000.5</v>
+        <v>16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-4334</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-346004</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3388</v>
+      </c>
+      <c r="K3" t="n">
+        <v>49949.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wireless Mouse Logitech</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
+          <t>HP Desktop</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>850</v>
+        <v>181</v>
       </c>
       <c r="D4" t="n">
-        <v>650</v>
-      </c>
-      <c r="E4" t="n">
-        <v>900</v>
+        <v>194.66</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>850</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-2205</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-839428</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8003</v>
+      </c>
+      <c r="K4" t="n">
+        <v>194.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mechanical Keyboard</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30</v>
+          <t>HP Desktop</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>2500</v>
+        <v>225</v>
       </c>
       <c r="D5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2800</v>
+        <v>9266.219999999999</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>23</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-6120</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-566987</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5433</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9266.219999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USB Cable Type-C</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
+          <t>Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>150</v>
+        <v>427</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>180</v>
+        <v>60478.64</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-3957</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-172056</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6370</v>
+      </c>
+      <c r="K6" t="n">
+        <v>60478.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A4 Size Paper Ream</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>200</v>
+          <t>Wireless Mouse</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E7" t="n">
-        <v>280</v>
+        <v>38592.29</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-9216</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ream</t>
+          <t>BAR-572194</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3057</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38592.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Black Gel Pen</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>500</v>
+          <t>Mechanical Keyboard</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
+        <v>24791.98</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-4632</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-892092</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3527</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24791.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blue Ballpoint Pen</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>500</v>
+          <t>Mechanical Keyboard</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="D9" t="n">
+        <v>65962.91</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>25</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ITEM-3611</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BAR-947232</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Stationery</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>100</v>
+      <c r="J9" t="n">
+        <v>8991</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65962.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spiral Notebook A4</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>300</v>
+          <t>USB Cable Type-C</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
+        <v>11648.58</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-5899</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-153543</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4161</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11648.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Highlighter Marker Set</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>80</v>
+          <t>USB Cable Type-C</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
-      </c>
-      <c r="E11" t="n">
-        <v>140</v>
+        <v>7398.12</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-2743</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>BAR-381653</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7398.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Office Desk Wooden</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25</v>
+          <t>LED Monitor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>12000</v>
+        <v>137</v>
       </c>
       <c r="D12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13500</v>
+        <v>21589.04</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>12000</v>
+        <v>15</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>ITEM-3662</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-300642</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>5</v>
       </c>
+      <c r="J12" t="n">
+        <v>6812</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21589.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Executive Chair</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20</v>
+          <t>LED Monitor</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>8500</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>7000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9500</v>
+        <v>37770.73</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>8500</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>ITEM-8134</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-798422</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3258</v>
+      </c>
+      <c r="K13" t="n">
+        <v>37770.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Filing Cabinet 4-Drawer</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
+          <t>HDMI Cable</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>15000</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>12500</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16500</v>
+        <v>80291.07000000001</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>ITEM-1846</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-672074</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1742</v>
+      </c>
+      <c r="K14" t="n">
+        <v>80291.07000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Conference Table</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
+          <t>HDMI Cable</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>35000</v>
+        <v>174</v>
       </c>
       <c r="D15" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>38000</v>
+        <v>41016.48</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>35000</v>
+        <v>16</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>ITEM-3647</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-752670</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5748</v>
+      </c>
+      <c r="K15" t="n">
+        <v>41016.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bookshelf 5-Tier</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>18</v>
+          <t>External Hard Drive</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>6500</v>
+        <v>229</v>
       </c>
       <c r="D16" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7200</v>
+        <v>44637.34</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>6500</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>ITEM-7520</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-853929</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2963</v>
+      </c>
+      <c r="K16" t="n">
+        <v>44637.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LED Monitor 24 inch</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>40</v>
+          <t>External Hard Drive</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>18000</v>
+        <v>489</v>
       </c>
       <c r="D17" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19500</v>
+        <v>89423.89999999999</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-5043</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-785618</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4351</v>
+      </c>
+      <c r="K17" t="n">
+        <v>89423.89999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HDMI Cable 2m</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>75</v>
+          <t>Bluetooth Speaker</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="D18" t="n">
-        <v>250</v>
-      </c>
-      <c r="E18" t="n">
-        <v>400</v>
+        <v>88050.98</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-5274</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-383558</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6558</v>
+      </c>
+      <c r="K18" t="n">
+        <v>88050.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Laptop Bag</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>35</v>
+          <t>Bluetooth Speaker</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1200</v>
+        <v>416</v>
       </c>
       <c r="D19" t="n">
-        <v>900</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1400</v>
+        <v>7581.89</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>1200</v>
+        <v>23</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accessories</t>
+          <t>ITEM-8370</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-597379</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9655</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7581.89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Power Strip 6 Socket</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>60</v>
+          <t>Webcam HD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="D20" t="n">
-        <v>350</v>
-      </c>
-      <c r="E20" t="n">
-        <v>500</v>
+        <v>77022.60000000001</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>450</v>
+        <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-9884</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-709671</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3167</v>
+      </c>
+      <c r="K20" t="n">
+        <v>77022.60000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Whiteboard Marker Black</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>150</v>
+          <t>Webcam HD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>486</v>
       </c>
       <c r="D21" t="n">
+        <v>57932.64</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ITEM-7783</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>BAR-637566</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>18</v>
       </c>
-      <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Stationery</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
+      <c r="J21" t="n">
+        <v>1247</v>
+      </c>
+      <c r="K21" t="n">
+        <v>57932.64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stapler Heavy Duty</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>45</v>
+          <t>Office Desk</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>220</v>
-      </c>
-      <c r="E22" t="n">
-        <v>320</v>
+        <v>46135.89</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-7230</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-179271</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3670</v>
+      </c>
+      <c r="K22" t="n">
+        <v>46135.89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paper Clips Box</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>200</v>
+          <t>Office Desk</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
-      </c>
-      <c r="E23" t="n">
-        <v>40</v>
+        <v>52896.28</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-2762</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>box</t>
+          <t>BAR-427722</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7747</v>
+      </c>
+      <c r="K23" t="n">
+        <v>52896.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sticky Notes Pack</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>120</v>
+          <t>Executive Chair</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
-      </c>
-      <c r="E24" t="n">
-        <v>75</v>
+        <v>34181.75</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Stationery</t>
+          <t>ITEM-2345</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>pack</t>
+          <t>BAR-700602</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8838</v>
+      </c>
+      <c r="K24" t="n">
+        <v>34181.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Calculator Scientific</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
+          <t>Executive Chair</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>850</v>
+        <v>289</v>
       </c>
       <c r="D25" t="n">
-        <v>700</v>
-      </c>
-      <c r="E25" t="n">
-        <v>950</v>
+        <v>38892.92</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F25" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-6880</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-467875</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2686</v>
+      </c>
+      <c r="K25" t="n">
+        <v>38892.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Printer HP LaserJet</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>8</v>
+          <t>Filing Cabinet</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>28000</v>
+        <v>232</v>
       </c>
       <c r="D26" t="n">
-        <v>24000</v>
-      </c>
-      <c r="E26" t="n">
-        <v>30000</v>
+        <v>62289.15</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>28000</v>
+        <v>9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-9335</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-330774</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2746</v>
+      </c>
+      <c r="K26" t="n">
+        <v>62289.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Printer Ink Cartridge Black</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>40</v>
+          <t>Filing Cabinet</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1200</v>
+        <v>331</v>
       </c>
       <c r="D27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1350</v>
+        <v>16841.05</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-4016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-833310</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7194</v>
+      </c>
+      <c r="K27" t="n">
+        <v>16841.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Printer Ink Cartridge Color</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>40</v>
+          <t>Conference Table</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1500</v>
+        <v>357</v>
       </c>
       <c r="D28" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1650</v>
+        <v>11593.57</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>1500</v>
+        <v>21</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-8199</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-563160</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8265</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11593.57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scanner Flatbed</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>6</v>
+          <t>Conference Table</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>15000</v>
+        <v>70</v>
       </c>
       <c r="D29" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>16500</v>
+        <v>9991.59</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>15000</v>
+        <v>12</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-9972</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-144529</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9814</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9991.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>External Hard Drive 1TB</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>20</v>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>4500</v>
+        <v>472</v>
       </c>
       <c r="D30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5000</v>
+        <v>6681.6</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>4500</v>
+        <v>6</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>ITEM-1493</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>pcs</t>
+          <t>BAR-303942</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5621</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6681.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>USB Flash Drive 32GB</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>100</v>
+          <t>Bookshelf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
       </c>
       <c r="C31" t="n">
+        <v>378</v>
+      </c>
+      <c r="D31" t="n">
+        <v>52558.35</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ITEM-9581</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>BAR-712458</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7858</v>
+      </c>
+      <c r="K31" t="n">
+        <v>52558.35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Laptop Stand</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>284</v>
+      </c>
+      <c r="D32" t="n">
+        <v>41325.96</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ITEM-1127</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>BAR-696610</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2763</v>
+      </c>
+      <c r="K32" t="n">
+        <v>41325.96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Laptop Stand</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>130</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15718.28</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ITEM-5857</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BAR-930460</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3169</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15718.28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Drawer Unit</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>116</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12220.34</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ITEM-1287</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>BAR-111366</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2696</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12220.34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Drawer Unit</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>350</v>
       </c>
-      <c r="D31" t="n">
-        <v>280</v>
-      </c>
-      <c r="E31" t="n">
-        <v>400</v>
-      </c>
-      <c r="F31" t="n">
-        <v>350</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="D35" t="n">
+        <v>26792.56</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>20</v>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ITEM-5980</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>BAR-892535</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2569</v>
+      </c>
+      <c r="K35" t="n">
+        <v>26792.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Visitor Chair</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>168</v>
+      </c>
+      <c r="D36" t="n">
+        <v>65251.36</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>18</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ITEM-8532</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>BAR-865051</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7654</v>
+      </c>
+      <c r="K36" t="n">
+        <v>65251.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Visitor Chair</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>292</v>
+      </c>
+      <c r="D37" t="n">
+        <v>48322.62</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ITEM-6999</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>BAR-995270</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4605</v>
+      </c>
+      <c r="K37" t="n">
+        <v>48322.62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Storage Rack</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>134</v>
+      </c>
+      <c r="D38" t="n">
+        <v>74338.25</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ITEM-6149</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>BAR-119473</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>18</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8246</v>
+      </c>
+      <c r="K38" t="n">
+        <v>74338.25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Storage Rack</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>463</v>
+      </c>
+      <c r="D39" t="n">
+        <v>54428.89</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ITEM-6348</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>BAR-275199</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>28</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6156</v>
+      </c>
+      <c r="K39" t="n">
+        <v>54428.89</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cushioned Stool</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>483</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14005.64</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>13</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ITEM-3619</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>BAR-767262</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7515</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14005.64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cushioned Stool</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>250</v>
+      </c>
+      <c r="D41" t="n">
+        <v>35900.67</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ITEM-4001</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>BAR-886439</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>28</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5690</v>
+      </c>
+      <c r="K41" t="n">
+        <v>35900.67</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>A4 Paper Ream</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>442</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6437.86</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>23</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ITEM-4137</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>BAR-465821</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8077</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6437.86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A4 Paper Ream</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>226</v>
+      </c>
+      <c r="D43" t="n">
+        <v>65849.78999999999</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ITEM-9303</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>BAR-394188</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5658</v>
+      </c>
+      <c r="K43" t="n">
+        <v>65849.78999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Black Gel Pen</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>395</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43861.46</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>14</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ITEM-4841</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BAR-665686</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>18</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3515</v>
+      </c>
+      <c r="K44" t="n">
+        <v>43861.46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Black Gel Pen</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>297</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55203.46</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ITEM-1970</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BAR-622397</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>28</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6885</v>
+      </c>
+      <c r="K45" t="n">
+        <v>55203.46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Blue Ball Pen</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="n">
+        <v>69125.5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>13</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ITEM-5967</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BAR-829076</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>28</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1943</v>
+      </c>
+      <c r="K46" t="n">
+        <v>69125.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Blue Ball Pen</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>490</v>
+      </c>
+      <c r="D47" t="n">
+        <v>63796.17</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ITEM-5872</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>BAR-599848</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8061</v>
+      </c>
+      <c r="K47" t="n">
+        <v>63796.17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Spiral Notebook</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>97</v>
+      </c>
+      <c r="D48" t="n">
+        <v>42525.01</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>21</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ITEM-6280</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>BAR-876358</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8903</v>
+      </c>
+      <c r="K48" t="n">
+        <v>42525.01</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Spiral Notebook</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>257</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32895.82</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>25</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ITEM-6328</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>BAR-987357</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>28</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9181</v>
+      </c>
+      <c r="K49" t="n">
+        <v>32895.82</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Highlighter Marker</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>163</v>
+      </c>
+      <c r="D50" t="n">
+        <v>53677.67</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>12</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ITEM-7380</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>BAR-267713</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7496</v>
+      </c>
+      <c r="K50" t="n">
+        <v>53677.67</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Highlighter Marker</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>75</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25198.5</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ITEM-7716</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>BAR-997296</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6630</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25198.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Whiteboard Marker</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>132</v>
+      </c>
+      <c r="D52" t="n">
+        <v>81694.75999999999</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ITEM-7134</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>BAR-144981</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8996</v>
+      </c>
+      <c r="K52" t="n">
+        <v>81694.75999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Whiteboard Marker</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>274</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31823.79</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>18</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ITEM-4791</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>BAR-905152</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9553</v>
+      </c>
+      <c r="K53" t="n">
+        <v>31823.79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Stapler</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>343</v>
+      </c>
+      <c r="D54" t="n">
+        <v>85711.55</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ITEM-8172</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BAR-641448</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>18</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5139</v>
+      </c>
+      <c r="K54" t="n">
+        <v>85711.55</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Stapler</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>273</v>
+      </c>
+      <c r="D55" t="n">
+        <v>27989.76</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>23</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ITEM-9388</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>BAR-145106</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3127</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27989.76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Push Pins</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>19</v>
+      </c>
+      <c r="D56" t="n">
+        <v>85038.66</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>16</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ITEM-6877</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>BAR-925747</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>28</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K56" t="n">
+        <v>85038.66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Push Pins</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>101</v>
+      </c>
+      <c r="D57" t="n">
+        <v>21036.58</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ITEM-6939</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BAR-327383</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8992</v>
+      </c>
+      <c r="K57" t="n">
+        <v>21036.58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Paper Clips</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>363</v>
+      </c>
+      <c r="D58" t="n">
+        <v>36775.9</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>15</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ITEM-8739</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>BAR-548756</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6147</v>
+      </c>
+      <c r="K58" t="n">
+        <v>36775.9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Paper Clips</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>110</v>
+      </c>
+      <c r="D59" t="n">
+        <v>61400.12</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ITEM-8401</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>BAR-514002</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>18</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2928</v>
+      </c>
+      <c r="K59" t="n">
+        <v>61400.12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tape Dispenser</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>94</v>
+      </c>
+      <c r="D60" t="n">
+        <v>18792.14</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>18</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ITEM-7078</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>BAR-417532</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6741</v>
+      </c>
+      <c r="K60" t="n">
+        <v>18792.14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tape Dispenser</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Stationery</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>407</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13365.05</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>24</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ITEM-2388</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>BAR-550758</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7895</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13365.05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>106</v>
+      </c>
+      <c r="D62" t="n">
+        <v>75251.33</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ITEM-4003</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>BAR-713743</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>12</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1520</v>
+      </c>
+      <c r="K62" t="n">
+        <v>75251.33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>64</v>
+      </c>
+      <c r="D63" t="n">
+        <v>49257.68</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ITEM-9904</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>BAR-228705</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9169</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49257.68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Mouse Pad</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>494</v>
+      </c>
+      <c r="D64" t="n">
+        <v>46766.65</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>18</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ITEM-6950</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>BAR-927249</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2126</v>
+      </c>
+      <c r="K64" t="n">
+        <v>46766.65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mouse Pad</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>60</v>
+      </c>
+      <c r="D65" t="n">
+        <v>41834.88</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>17</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ITEM-1469</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>BAR-963313</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5289</v>
+      </c>
+      <c r="K65" t="n">
+        <v>41834.88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Keyboard Cover</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>359</v>
+      </c>
+      <c r="D66" t="n">
+        <v>50557.46</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ITEM-5740</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>BAR-426274</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3231</v>
+      </c>
+      <c r="K66" t="n">
+        <v>50557.46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Keyboard Cover</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>23</v>
+      </c>
+      <c r="D67" t="n">
+        <v>38052.65</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ITEM-5547</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>BAR-732426</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>28</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4451</v>
+      </c>
+      <c r="K67" t="n">
+        <v>38052.65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Power Adapter</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>103</v>
+      </c>
+      <c r="D68" t="n">
+        <v>29199.07</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ITEM-1534</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>BAR-807071</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9840</v>
+      </c>
+      <c r="K68" t="n">
+        <v>29199.07</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Power Adapter</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>490</v>
+      </c>
+      <c r="D69" t="n">
+        <v>77558</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>25</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ITEM-5868</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>BAR-538682</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>12</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7452</v>
+      </c>
+      <c r="K69" t="n">
+        <v>77558</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>USB Hub</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>356</v>
+      </c>
+      <c r="D70" t="n">
+        <v>87604.71000000001</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>13</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ITEM-8563</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>BAR-156656</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2190</v>
+      </c>
+      <c r="K70" t="n">
+        <v>87604.71000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>USB Hub</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>319</v>
+      </c>
+      <c r="D71" t="n">
+        <v>19237.12</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>21</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>ITEM-4392</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>BAR-296948</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K71" t="n">
+        <v>19237.12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Extension Board</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>240</v>
+      </c>
+      <c r="D72" t="n">
+        <v>43929.67</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>18</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ITEM-6390</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>BAR-401572</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>28</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2719</v>
+      </c>
+      <c r="K72" t="n">
+        <v>43929.67</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Extension Board</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>319</v>
+      </c>
+      <c r="D73" t="n">
+        <v>56745.12</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>23</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ITEM-5019</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>BAR-731078</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>9260</v>
+      </c>
+      <c r="K73" t="n">
+        <v>56745.12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Phone Holder</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>271</v>
+      </c>
+      <c r="D74" t="n">
+        <v>51740.37</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>16</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ITEM-5682</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>BAR-763719</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1534</v>
+      </c>
+      <c r="K74" t="n">
+        <v>51740.37</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Phone Holder</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>51</v>
+      </c>
+      <c r="D75" t="n">
+        <v>24675.33</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>ITEM-1539</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>BAR-214520</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8991</v>
+      </c>
+      <c r="K75" t="n">
+        <v>24675.33</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Cable Organizer</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>196</v>
+      </c>
+      <c r="D76" t="n">
+        <v>44414.85</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ITEM-3682</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>BAR-634147</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>28</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4169</v>
+      </c>
+      <c r="K76" t="n">
+        <v>44414.85</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Cable Organizer</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>112</v>
+      </c>
+      <c r="D77" t="n">
+        <v>18715.86</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ITEM-5612</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>BAR-794668</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>18</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3466</v>
+      </c>
+      <c r="K77" t="n">
+        <v>18715.86</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Cooling Pad</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>153</v>
+      </c>
+      <c r="D78" t="n">
+        <v>89348.21000000001</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ITEM-4122</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>BAR-895006</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>28</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6679</v>
+      </c>
+      <c r="K78" t="n">
+        <v>89348.21000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Cooling Pad</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>27</v>
+      </c>
+      <c r="D79" t="n">
+        <v>34563.65</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ITEM-3525</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>BAR-758377</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4238</v>
+      </c>
+      <c r="K79" t="n">
+        <v>34563.65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Screen Cleaner</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>455</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12008.39</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ITEM-1046</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>BAR-205736</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>28</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6976</v>
+      </c>
+      <c r="K80" t="n">
+        <v>12008.39</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Screen Cleaner</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>407</v>
+      </c>
+      <c r="D81" t="n">
+        <v>57020.14</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ITEM-8178</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>BAR-686745</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>28</v>
+      </c>
+      <c r="J81" t="n">
+        <v>9319</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57020.14</v>
       </c>
     </row>
   </sheetData>
